--- a/LavoroGruppo/Consegna3/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/MODELLO_stato_di_avanzamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F431F-4CA4-4E85-AB74-CF4120E08161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F868E-5E57-49C7-BEB5-BAE777C26A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Catalago requisiti, use case di contesto</t>
+  </si>
+  <si>
+    <t>Crezione use case "Gestione utenti e gruppi"</t>
+  </si>
+  <si>
+    <t>Crezione UML "Gestione utenti e gruppi"</t>
   </si>
 </sst>
 </file>
@@ -550,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -910,22 +916,46 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="A29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4">
+        <v>44658</v>
+      </c>
+      <c r="C29" s="5">
+        <v>60</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4">
+        <v>44666</v>
+      </c>
+      <c r="C30" s="5">
+        <v>60</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4">
+        <v>44667</v>
+      </c>
+      <c r="C31" s="5">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>

--- a/LavoroGruppo/Consegna3/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/MODELLO_stato_di_avanzamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F868E-5E57-49C7-BEB5-BAE777C26A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD198FAC-3AAA-49D4-A375-E40A9A24E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -60,12 +60,6 @@
     <t>Simone</t>
   </si>
   <si>
-    <t>Dario</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
     <t>Revisione Annuncio di Progetto</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>Ultimazione Verbale preparazione incontro di riunione</t>
   </si>
   <si>
-    <t>Incontro di riunione con azienda Time&amp;Pieces, domande</t>
-  </si>
-  <si>
     <t>Preparazione Verbale di riunione</t>
   </si>
   <si>
@@ -97,6 +88,21 @@
   </si>
   <si>
     <t>Crezione UML "Gestione utenti e gruppi"</t>
+  </si>
+  <si>
+    <t>Gruppo</t>
+  </si>
+  <si>
+    <t>Dario e Aaron</t>
+  </si>
+  <si>
+    <t>Fabio e Simone</t>
+  </si>
+  <si>
+    <t>Dario e Simone</t>
+  </si>
+  <si>
+    <t>Dario, Aaron e Simone</t>
   </si>
 </sst>
 </file>
@@ -554,15 +560,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="122.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
@@ -609,7 +615,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4">
         <v>44630</v>
@@ -618,29 +624,29 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
         <v>44630</v>
       </c>
       <c r="C8" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
-        <v>44630</v>
+        <v>44637</v>
       </c>
       <c r="C9" s="3">
         <v>90</v>
@@ -651,55 +657,55 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4">
-        <v>44630</v>
+        <v>44644</v>
       </c>
       <c r="C10" s="3">
         <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4">
-        <v>44637</v>
+        <v>44645</v>
       </c>
       <c r="C11" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>44637</v>
-      </c>
-      <c r="C12" s="3">
+        <v>44651</v>
+      </c>
+      <c r="C12" s="5">
         <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4">
-        <v>44637</v>
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44656</v>
       </c>
       <c r="C13" s="5">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
@@ -707,315 +713,119 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4">
-        <v>44637</v>
+        <v>44657</v>
       </c>
       <c r="C14" s="5">
-        <v>90</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
+      <c r="A15" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>44644</v>
-      </c>
-      <c r="C15" s="3">
-        <v>90</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>44658</v>
+      </c>
+      <c r="C15" s="5">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
+      <c r="A16" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>44644</v>
+        <v>44666</v>
       </c>
       <c r="C16" s="5">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
+      <c r="A17" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>44645</v>
-      </c>
-      <c r="C17" s="3">
+        <v>44667</v>
+      </c>
+      <c r="C17" s="5">
         <v>40</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>18</v>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4">
-        <v>44645</v>
-      </c>
-      <c r="C18" s="5">
-        <v>40</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4">
-        <v>44645</v>
-      </c>
-      <c r="C19" s="5">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4">
-        <v>44651</v>
-      </c>
-      <c r="C20" s="5">
-        <v>90</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="6">
-        <v>44651</v>
-      </c>
-      <c r="C21" s="5">
-        <v>90</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="4">
-        <v>44651</v>
-      </c>
-      <c r="C22" s="5">
-        <v>90</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="6">
-        <v>44651</v>
-      </c>
-      <c r="C23" s="5">
-        <v>90</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6">
-        <v>44656</v>
-      </c>
-      <c r="C24" s="5">
-        <v>40</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="4">
-        <v>44657</v>
-      </c>
-      <c r="C25" s="5">
-        <v>60</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="4">
-        <v>44657</v>
-      </c>
-      <c r="C26" s="5">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4">
-        <v>44657</v>
-      </c>
-      <c r="C27" s="5">
-        <v>60</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4">
-        <v>44657</v>
-      </c>
-      <c r="C28" s="5">
-        <v>60</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="4">
-        <v>44658</v>
-      </c>
-      <c r="C29" s="5">
-        <v>60</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="4">
-        <v>44666</v>
-      </c>
-      <c r="C30" s="5">
-        <v>60</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="4">
-        <v>44667</v>
-      </c>
-      <c r="C31" s="5">
-        <v>40</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LavoroGruppo/Consegna3/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/MODELLO_stato_di_avanzamento.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD198FAC-3AAA-49D4-A375-E40A9A24E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1540B8-7BAB-44EC-AB2E-4777CF914E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Dario, Aaron e Simone</t>
+  </si>
+  <si>
+    <t>Crezione ER</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -768,10 +771,18 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44667</v>
+      </c>
+      <c r="C18" s="5">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>

--- a/LavoroGruppo/Consegna3/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/MODELLO_stato_di_avanzamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1540B8-7BAB-44EC-AB2E-4777CF914E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34721C-44E6-48B2-9781-14143169F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -87,9 +87,6 @@
     <t>Crezione use case "Gestione utenti e gruppi"</t>
   </si>
   <si>
-    <t>Crezione UML "Gestione utenti e gruppi"</t>
-  </si>
-  <si>
     <t>Gruppo</t>
   </si>
   <si>
@@ -105,7 +102,22 @@
     <t>Dario, Aaron e Simone</t>
   </si>
   <si>
-    <t>Crezione ER</t>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Dario</t>
+  </si>
+  <si>
+    <t>Crezione use case "Login"</t>
+  </si>
+  <si>
+    <t>Crezione use case "Inserimento dati"</t>
+  </si>
+  <si>
+    <t>Crezione activity diagram "Gestione utenti e gruppi"</t>
+  </si>
+  <si>
+    <t>Creazione use case "Report Attività" e activity diagram "Invio Report Attività"</t>
   </si>
 </sst>
 </file>
@@ -565,15 +577,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="122.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="125" style="1" customWidth="1"/>
   </cols>
@@ -618,7 +630,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4">
         <v>44630</v>
@@ -632,7 +644,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
         <v>44630</v>
@@ -646,7 +658,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>44637</v>
@@ -660,7 +672,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4">
         <v>44644</v>
@@ -674,7 +686,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4">
         <v>44645</v>
@@ -688,7 +700,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4">
         <v>44651</v>
@@ -716,7 +728,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
         <v>44657</v>
@@ -744,30 +756,30 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4">
-        <v>44666</v>
+        <v>44665</v>
       </c>
       <c r="C16" s="5">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4">
-        <v>44667</v>
+        <v>44665</v>
       </c>
       <c r="C17" s="5">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,26 +787,42 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="C18" s="5">
         <v>60</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44667</v>
+      </c>
+      <c r="C19" s="5">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44669</v>
+      </c>
+      <c r="C20" s="5">
+        <v>120</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>

--- a/LavoroGruppo/Consegna3/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/MODELLO_stato_di_avanzamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34721C-44E6-48B2-9781-14143169F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6990E9F-F9E7-4468-B229-A0D31B7443E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Creazione use case "Report Attività" e activity diagram "Invio Report Attività"</t>
+  </si>
+  <si>
+    <t>Creazione manuale di progetto</t>
+  </si>
+  <si>
+    <t>Creazione DB</t>
+  </si>
+  <si>
+    <t>Creazione interfaccia web</t>
+  </si>
+  <si>
+    <t>Collegamento interfaccia web -&gt; DB</t>
   </si>
 </sst>
 </file>
@@ -578,7 +590,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -825,28 +837,60 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44671</v>
+      </c>
+      <c r="C21" s="5">
+        <v>60</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44674</v>
+      </c>
+      <c r="C22" s="5">
+        <v>60</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6">
+        <v>44676</v>
+      </c>
+      <c r="C23" s="5">
+        <v>120</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6">
+        <v>44677</v>
+      </c>
+      <c r="C24" s="5">
+        <v>60</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
